--- a/JX-Ma/研二上/week-8/tflops.xlsx
+++ b/JX-Ma/研二上/week-8/tflops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zzz\HPC\HPC-Knowledge-Library\JX-Ma\研二上\week-8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3BF502-EC98-43C2-9136-B68BADC7B438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCF2751-5700-45FE-A8BF-ED3B8F6A663B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FFT" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="13">
   <si>
     <t>BatchSize</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>conv12</t>
-  </si>
-  <si>
-    <t>128</t>
   </si>
 </sst>
 </file>
@@ -399,7 +396,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M4"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -578,7 +575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD78711-41DE-4D07-95B2-1716B3E13571}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -626,7 +623,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>128</v>
       </c>
       <c r="B2">
@@ -635,39 +632,39 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>2.74</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>26.1</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2">
         <v>42.77</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2">
         <v>6.92</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2">
         <v>1.5</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2">
         <v>22.45</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2">
         <v>17.579999999999998</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2">
         <v>23.49</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2">
         <v>8.94</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2">
         <v>1.93</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>256</v>
       </c>
       <c r="B3">
@@ -676,39 +673,39 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>2.84</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>26.92</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
         <v>50.07</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3">
         <v>7.82</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3">
         <v>1.53</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3">
         <v>22.86</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3">
         <v>19.329999999999998</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3">
         <v>27.36</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3">
         <v>10.210000000000001</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3">
         <v>2.17</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>512</v>
       </c>
       <c r="B4">
@@ -717,34 +714,34 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>2.88</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>26.92</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
         <v>54.6</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4">
         <v>8.36</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4">
         <v>1.54</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4">
         <v>23.02</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4">
         <v>20.03</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4">
         <v>29.95</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4">
         <v>10.99</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4">
         <v>2.3199999999999998</v>
       </c>
     </row>
@@ -806,125 +803,125 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>128</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>7.64</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>7.64</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>5.04</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>6.15</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2">
         <v>13.87</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2">
         <v>13.82</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2">
         <v>2.0499999999999998</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2">
         <v>10.98</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2">
         <v>5.82</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2">
         <v>10.4</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2">
         <v>11.54</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2">
         <v>11.7</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>256</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>7.88</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>7.58</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>5.14</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>1.49</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
         <v>14.29</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3">
         <v>14.7</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3">
         <v>2.19</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3">
         <v>11.3</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3">
         <v>5.96</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3">
         <v>11.02</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3">
         <v>12.96</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3">
         <v>14.08</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>512</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>8.02</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>7.93</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>5.19</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>1.49</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
         <v>14.62</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4">
         <v>15.15</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4">
         <v>2.17</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4">
         <v>10.32</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4">
         <v>6.09</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4">
         <v>11.41</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4">
         <v>13.65</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4">
         <v>14.92</v>
       </c>
     </row>
@@ -986,125 +983,125 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>128</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>9.76</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>9.99</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>7.83</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>8.52</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2">
         <v>15.48</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2">
         <v>14</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2">
         <v>2.33</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2">
         <v>14.18</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2">
         <v>7.67</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2">
         <v>13.26</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2">
         <v>12.61</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2">
         <v>11.54</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>256</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>10.31</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>10.52</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>8.07</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>8.2200000000000006</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
         <v>16.04</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3">
         <v>15.1</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3">
         <v>2.52</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3">
         <v>14.95</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3">
         <v>8.0299999999999994</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3">
         <v>14.52</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3">
         <v>14.31</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3">
         <v>14.37</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>512</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>9.9499999999999993</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>10.050000000000001</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>8.18</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>7.93</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
         <v>16.54</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4">
         <v>15.53</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4">
         <v>2.5299999999999998</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4">
         <v>14.15</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4">
         <v>8.18</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4">
         <v>15.07</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4">
         <v>15.42</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4">
         <v>14.82</v>
       </c>
     </row>
@@ -1118,8 +1115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1DDC3FD-6B2D-4F42-AC5E-7E95F526E273}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1166,8 +1163,8 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>13</v>
+      <c r="A2" s="1">
+        <v>128</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1207,84 +1204,84 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>256</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>12.17</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>12.18</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>11.19</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>24.73</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
         <v>28.39</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3">
         <v>26.15</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3">
         <v>3.32</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3">
         <v>22.95</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3">
         <v>11.62</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3">
         <v>22.01</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3">
         <v>22.61</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3">
         <v>20.05</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>512</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>12.58</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>12.63</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>11.49</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>24.15</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
         <v>29.41</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4">
         <v>27.67</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4">
         <v>3.4</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4">
         <v>19.27</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4">
         <v>12.01</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4">
         <v>23.84</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4">
         <v>25.31</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4">
         <v>25.62</v>
       </c>
     </row>
